--- a/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
+++ b/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
@@ -462,37 +462,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7600706313028855</v>
+        <v>0.7723323445918061</v>
       </c>
       <c r="C2">
-        <v>0.02980113005507119</v>
+        <v>0.03445658242777255</v>
       </c>
       <c r="D2">
-        <v>0.741284663905331</v>
+        <v>0.7420760148450991</v>
       </c>
       <c r="E2">
-        <v>0.7460651726663367</v>
+        <v>0.7470135935518118</v>
       </c>
       <c r="F2">
-        <v>0.748735913144807</v>
+        <v>0.7504261789608688</v>
       </c>
       <c r="G2">
-        <v>0.7521221130745408</v>
+        <v>0.815963055533745</v>
       </c>
       <c r="H2">
-        <v>0.8370561978342003</v>
+        <v>0.8285271493034808</v>
       </c>
       <c r="I2">
-        <v>2.493054900545754</v>
+        <v>12.16421095134998</v>
       </c>
       <c r="J2">
-        <v>918.9420611280607</v>
+        <v>141.3751908297425</v>
       </c>
       <c r="K2">
-        <v>5.831173589574624</v>
+        <v>2.085189552194268</v>
       </c>
       <c r="L2">
-        <v>157.5912716388702</v>
+        <v>67.79968309402466</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -500,37 +500,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.010592485266492</v>
+        <v>1.029607109549036</v>
       </c>
       <c r="C3">
-        <v>0.03474293078860247</v>
+        <v>0.0432930973429417</v>
       </c>
       <c r="D3">
-        <v>0.989291922634672</v>
+        <v>0.9924916943952069</v>
       </c>
       <c r="E3">
-        <v>0.994370102741551</v>
+        <v>0.9978198610884508</v>
       </c>
       <c r="F3">
-        <v>0.9973544562926941</v>
+        <v>1.001742467856205</v>
       </c>
       <c r="G3">
-        <v>1.000780555800823</v>
+        <v>1.085878115265738</v>
       </c>
       <c r="H3">
-        <v>1.097947423001483</v>
+        <v>1.098446944070902</v>
       </c>
       <c r="I3">
-        <v>2.647759885687017</v>
+        <v>13.77736584698096</v>
       </c>
       <c r="J3">
-        <v>364.9186389267174</v>
+        <v>734.7185699630767</v>
       </c>
       <c r="K3">
-        <v>2.315601842232418</v>
+        <v>10.83660773080854</v>
       </c>
       <c r="L3">
-        <v>157.5912716388702</v>
+        <v>67.79968309402466</v>
       </c>
     </row>
   </sheetData>

--- a/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
+++ b/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
@@ -462,37 +462,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7723323445918061</v>
+        <v>0.7484556711817422</v>
       </c>
       <c r="C2">
-        <v>0.03445658242777255</v>
+        <v>0.001507569827429919</v>
       </c>
       <c r="D2">
-        <v>0.7420760148450991</v>
+        <v>0.7453879597389735</v>
       </c>
       <c r="E2">
-        <v>0.7470135935518118</v>
+        <v>0.7474535183975755</v>
       </c>
       <c r="F2">
-        <v>0.7504261789608688</v>
+        <v>0.7485307626121425</v>
       </c>
       <c r="G2">
-        <v>0.815963055533745</v>
+        <v>0.7494907085124702</v>
       </c>
       <c r="H2">
-        <v>0.8285271493034808</v>
+        <v>0.7511983879776852</v>
       </c>
       <c r="I2">
-        <v>12.16421095134998</v>
+        <v>1.00062105675683</v>
       </c>
       <c r="J2">
-        <v>141.3751908297425</v>
+        <v>2720.580112278004</v>
       </c>
       <c r="K2">
-        <v>2.085189552194268</v>
+        <v>41.04149764728615</v>
       </c>
       <c r="L2">
-        <v>67.79968309402466</v>
+        <v>66.28851938247681</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -500,37 +500,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.029607109549036</v>
+        <v>0.9965155917683606</v>
       </c>
       <c r="C3">
-        <v>0.0432930973429417</v>
+        <v>0.001635284424518071</v>
       </c>
       <c r="D3">
-        <v>0.9924916943952069</v>
+        <v>0.9932843685762831</v>
       </c>
       <c r="E3">
-        <v>0.9978198610884508</v>
+        <v>0.9954133650533245</v>
       </c>
       <c r="F3">
-        <v>1.001742467856205</v>
+        <v>0.9965503615220777</v>
       </c>
       <c r="G3">
-        <v>1.085878115265738</v>
+        <v>0.9976207189628034</v>
       </c>
       <c r="H3">
-        <v>1.098446944070902</v>
+        <v>0.9996059710406724</v>
       </c>
       <c r="I3">
-        <v>13.77736584698096</v>
+        <v>1.001036841007486</v>
       </c>
       <c r="J3">
-        <v>734.7185699630767</v>
+        <v>2700.577551426544</v>
       </c>
       <c r="K3">
-        <v>10.83660773080854</v>
+        <v>40.73974764535824</v>
       </c>
       <c r="L3">
-        <v>67.79968309402466</v>
+        <v>66.28851938247681</v>
       </c>
     </row>
   </sheetData>

--- a/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
+++ b/examples/emulators/mcmc/figures/nn-6-64-50000.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2-steps" sheetId="1" r:id="rId1"/>
+    <sheet name="metropolis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -462,37 +462,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7483526870584061</v>
+        <v>0.7527244143471051</v>
       </c>
       <c r="C2">
-        <v>0.003316659655785471</v>
+        <v>0.003408157904279614</v>
       </c>
       <c r="D2">
-        <v>0.7419680572669913</v>
+        <v>0.7459227436523241</v>
       </c>
       <c r="E2">
-        <v>0.7460636428478477</v>
+        <v>0.750425195371284</v>
       </c>
       <c r="F2">
-        <v>0.7483359819994421</v>
+        <v>0.7526698873918027</v>
       </c>
       <c r="G2">
-        <v>0.7506124715369799</v>
+        <v>0.7549974137346945</v>
       </c>
       <c r="H2">
-        <v>0.754911433802844</v>
+        <v>0.7594561536728865</v>
       </c>
       <c r="I2">
-        <v>1.000408128744655</v>
+        <v>1.001143905408452</v>
       </c>
       <c r="J2">
-        <v>3212.729398922715</v>
+        <v>2292.93241482268</v>
       </c>
       <c r="K2">
-        <v>47.54430901562032</v>
+        <v>359.33598027125</v>
       </c>
       <c r="L2">
-        <v>67.5733745098114</v>
+        <v>6.38102650642395</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -500,37 +500,37 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.005011761981834</v>
+        <v>1.003698724411862</v>
       </c>
       <c r="C3">
-        <v>0.003765973645876437</v>
+        <v>0.003702924481527937</v>
       </c>
       <c r="D3">
-        <v>0.9976387573347529</v>
+        <v>0.99631612892572</v>
       </c>
       <c r="E3">
-        <v>1.00242476667077</v>
+        <v>1.001255619716205</v>
       </c>
       <c r="F3">
-        <v>1.005010335544929</v>
+        <v>1.003704392053087</v>
       </c>
       <c r="G3">
-        <v>1.007595838287836</v>
+        <v>1.006182312905996</v>
       </c>
       <c r="H3">
-        <v>1.012198309596892</v>
+        <v>1.010858293600075</v>
       </c>
       <c r="I3">
-        <v>1.001372488343205</v>
+        <v>1.000650923729364</v>
       </c>
       <c r="J3">
-        <v>1849.780083694463</v>
+        <v>2185.870471851045</v>
       </c>
       <c r="K3">
-        <v>27.37439260822887</v>
+        <v>342.5578109807992</v>
       </c>
       <c r="L3">
-        <v>67.5733745098114</v>
+        <v>6.38102650642395</v>
       </c>
     </row>
   </sheetData>
